--- a/test_output/market_sizing_piano_subscription_20251104.xlsx
+++ b/test_output/market_sizing_piano_subscription_20251104.xlsx
@@ -32,9 +32,40 @@
     <definedName name="COMP1_REV">'Assumptions'!$D$12</definedName>
     <definedName name="COMP1_SHARE">'Assumptions'!$D$13</definedName>
     <definedName name="SAM">'Method_1_TopDown'!$C$6</definedName>
+    <definedName name="M2_Seg1_SAM">'Method_2_BottomUp'!$F$4</definedName>
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
+    <definedName name="M4_Comp1_Rev">'Method_4_CompetitorRevenue'!$B$4</definedName>
+    <definedName name="M4_Comp1_Share">'Method_4_CompetitorRevenue'!$C$4</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
+    <definedName name="Conv_SAM_Method1">'Convergence_Analysis'!$B$4</definedName>
+    <definedName name="Conv_SAM_Method2">'Convergence_Analysis'!$B$5</definedName>
+    <definedName name="Conv_SAM_Method3">'Convergence_Analysis'!$B$6</definedName>
+    <definedName name="Conv_SAM_Method4">'Convergence_Analysis'!$B$7</definedName>
+    <definedName name="Conv_AvgSAM">'Convergence_Analysis'!$B$8</definedName>
+    <definedName name="Conv_StdDev">'Convergence_Analysis'!$B$9</definedName>
+    <definedName name="Conv_CV">'Convergence_Analysis'!$B$10</definedName>
+    <definedName name="Conv_MaxMin">'Convergence_Analysis'!$B$11</definedName>
+    <definedName name="Conv_Status">'Convergence_Analysis'!$B$12</definedName>
+    <definedName name="Scen_Method1_Best">'Scenarios'!$B$17</definedName>
+    <definedName name="Scen_Method1_Base">'Scenarios'!$C$17</definedName>
+    <definedName name="Scen_Method1_Worst">'Scenarios'!$D$17</definedName>
+    <definedName name="Scen_Method2_Best">'Scenarios'!$B$18</definedName>
+    <definedName name="Scen_Method2_Base">'Scenarios'!$C$18</definedName>
+    <definedName name="Scen_Method2_Worst">'Scenarios'!$D$18</definedName>
+    <definedName name="Scen_Method3_Best">'Scenarios'!$B$19</definedName>
+    <definedName name="Scen_Method3_Base">'Scenarios'!$C$19</definedName>
+    <definedName name="Scen_Method3_Worst">'Scenarios'!$D$19</definedName>
+    <definedName name="Scen_Method4_Best">'Scenarios'!$B$20</definedName>
+    <definedName name="Scen_Method4_Base">'Scenarios'!$C$20</definedName>
+    <definedName name="Scen_Method4_Worst">'Scenarios'!$D$20</definedName>
+    <definedName name="AvgSAM_Best">'Scenarios'!$B$22</definedName>
+    <definedName name="AvgSAM_Base">'Scenarios'!$C$22</definedName>
+    <definedName name="AvgSAM_Worst">'Scenarios'!$D$22</definedName>
+    <definedName name="Val_TotalItems">'Validation_Log'!$B$15</definedName>
+    <definedName name="Val_Validated">'Validation_Log'!$B$16</definedName>
+    <definedName name="Val_Pending">'Validation_Log'!$B$17</definedName>
+    <definedName name="Val_CompletionRate">'Validation_Log'!$B$18</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,7 +436,7 @@
     <author>Bill (Quantifier)</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <t>추정 논리:
 출처: EST_001
@@ -413,7 +444,7 @@
 Estimation_Details 시트 참조</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>추정 논리:
 출처: EST_002
@@ -421,7 +452,7 @@
 Estimation_Details 시트 참조</t>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <t>추정 논리:
 출처: EST_003
@@ -800,7 +831,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>piano_subscription</t>
+          <t>piano_subscription_example</t>
         </is>
       </c>
     </row>
@@ -829,7 +860,7 @@
         </is>
       </c>
       <c r="B6" s="6">
-        <f>Convergence_Analysis!C16</f>
+        <f>Conv_AvgSAM</f>
         <v/>
       </c>
     </row>
@@ -868,7 +899,7 @@
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>B10/B7*100</f>
+        <f>B10/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -883,7 +914,7 @@
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>B11/B7*100</f>
+        <f>B11/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -898,7 +929,7 @@
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>B12/B7*100</f>
+        <f>B12/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -913,7 +944,7 @@
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>B13/B7*100</f>
+        <f>B13/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -931,7 +962,7 @@
         </is>
       </c>
       <c r="B16" s="10">
-        <f>Convergence_Analysis!C19</f>
+        <f>Conv_MaxMin</f>
         <v/>
       </c>
     </row>
@@ -942,7 +973,7 @@
         </is>
       </c>
       <c r="B17" s="11">
-        <f>Convergence_Analysis!C20</f>
+        <f>Conv_Status</f>
         <v/>
       </c>
     </row>
@@ -953,7 +984,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>Convergence_Analysis!C17</f>
+        <f>Conv_StdDev</f>
         <v/>
       </c>
     </row>
@@ -964,7 +995,7 @@
         </is>
       </c>
       <c r="B19" s="9">
-        <f>Convergence_Analysis!C18</f>
+        <f>Conv_CV</f>
         <v/>
       </c>
     </row>
@@ -994,7 +1025,7 @@
         </is>
       </c>
       <c r="B23" s="12">
-        <f>Scenarios!B13</f>
+        <f>AvgSAM_Best</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1036,7 @@
         </is>
       </c>
       <c r="B24" s="13">
-        <f>Scenarios!C13</f>
+        <f>AvgSAM_Base</f>
         <v/>
       </c>
     </row>
@@ -1016,7 +1047,7 @@
         </is>
       </c>
       <c r="B25" s="14">
-        <f>Scenarios!D13</f>
+        <f>AvgSAM_Worst</f>
         <v/>
       </c>
     </row>
@@ -1045,7 +1076,7 @@
         </is>
       </c>
       <c r="B29" s="11">
-        <f>Validation_Log!B19</f>
+        <f>Val_TotalItems</f>
         <v/>
       </c>
     </row>
@@ -1056,7 +1087,7 @@
         </is>
       </c>
       <c r="B30" s="15">
-        <f>Validation_Log!B20</f>
+        <f>Val_Validated</f>
         <v/>
       </c>
     </row>
@@ -1067,7 +1098,7 @@
         </is>
       </c>
       <c r="B31" s="16">
-        <f>Validation_Log!B21</f>
+        <f>Val_Pending</f>
         <v/>
       </c>
     </row>
@@ -1078,7 +1109,7 @@
         </is>
       </c>
       <c r="B32" s="11">
-        <f>Validation_Log!B22</f>
+        <f>Val_CompletionRate</f>
         <v/>
       </c>
     </row>
@@ -1179,7 +1210,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 14:32</t>
+          <t>Generated: 2025-11-04 20:13</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1691,7 @@
         </is>
       </c>
       <c r="D2" s="20" t="n">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1738,7 +1769,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노만</t>
+          <t>피아노 비중</t>
         </is>
       </c>
       <c r="D4" s="20" t="n">
@@ -1751,12 +1782,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>직접데이터</t>
+          <t>추정치</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SRC_003</t>
+          <t>EST_001</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1779,7 +1810,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>타겟 고객</t>
+          <t>타겟 고객 수</t>
         </is>
       </c>
       <c r="D5" s="20" t="n">
@@ -1797,7 +1828,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EST_001</t>
+          <t>EST_002</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1820,7 +1851,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>구매율</t>
+          <t>구독 전환율</t>
         </is>
       </c>
       <c r="D6" s="20" t="n">
@@ -1838,7 +1869,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EST_002</t>
+          <t>EST_003</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1861,7 +1892,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>객단가</t>
+          <t>월 구독료</t>
         </is>
       </c>
       <c r="D7" s="20" t="n">
@@ -1879,7 +1910,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SRC_004</t>
+          <t>SRC_003</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1902,11 +1933,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>연간 구매</t>
+          <t>연간 결제</t>
         </is>
       </c>
       <c r="D8" s="20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1915,17 +1946,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>추정치</t>
+          <t>직접데이터</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EST_003</t>
+          <t>SRC_004</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1947,7 +1978,7 @@
         </is>
       </c>
       <c r="D9" s="20" t="n">
-        <v>500000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2066,7 +2097,7 @@
         </is>
       </c>
       <c r="D12" s="20" t="n">
-        <v>100000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2207,19 +2238,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SEG1_CUSTOMERS</t>
+          <t>FILTER_PIANO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>타겟 고객</t>
+          <t>피아노 비중</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>100000</v>
+        <v>0.25</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2235,19 +2266,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEG1_RATE</t>
+          <t>SEG1_CUSTOMERS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>구매율</t>
+          <t>타겟 고객 수</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>100000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2263,19 +2294,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SEG1_FREQ</t>
+          <t>SEG1_RATE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>연간 구매</t>
+          <t>구독 전환율</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2587,7 +2618,7 @@
         </is>
       </c>
       <c r="F6" s="26">
-        <f>SUM(F4:F4)</f>
+        <f>M2_Seg1_SAM</f>
         <v/>
       </c>
     </row>
@@ -2729,11 +2760,11 @@
         </is>
       </c>
       <c r="B5" s="27">
-        <f>SUM(B4:B4)</f>
+        <f>M4_Comp1_Rev</f>
         <v/>
       </c>
       <c r="C5" s="27">
-        <f>SUM(C4:C4)</f>
+        <f>M4_Comp1_Share</f>
         <v/>
       </c>
     </row>
@@ -2818,7 +2849,7 @@
         <v/>
       </c>
       <c r="C4" s="9">
-        <f>(B4-$B$8)/$B$8*100</f>
+        <f>(B4-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2833,7 +2864,7 @@
         <v/>
       </c>
       <c r="C5" s="9">
-        <f>(B5-$B$8)/$B$8*100</f>
+        <f>(B5-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2848,7 +2879,7 @@
         <v/>
       </c>
       <c r="C6" s="9">
-        <f>(B6-$B$8)/$B$8*100</f>
+        <f>(B6-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2863,7 +2894,7 @@
         <v/>
       </c>
       <c r="C7" s="9">
-        <f>(B7-$B$8)/$B$8*100</f>
+        <f>(B7-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2874,7 +2905,7 @@
         </is>
       </c>
       <c r="B8" s="30">
-        <f>AVERAGE(B4:B7)</f>
+        <f>AVERAGE(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>
@@ -2885,7 +2916,7 @@
         </is>
       </c>
       <c r="B9" s="8">
-        <f>STDEV(B4:B7)</f>
+        <f>STDEV(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>
@@ -2896,7 +2927,7 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>B9/B8*100</f>
+        <f>Conv_StdDev/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2907,7 +2938,7 @@
         </is>
       </c>
       <c r="B11" s="31">
-        <f>MAX(B4:B7)/MIN(B4:B7)</f>
+        <f>MAX(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)/MIN(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>
@@ -2918,7 +2949,7 @@
         </is>
       </c>
       <c r="B12" s="27">
-        <f>IF(B11&lt;=1.3, "✅ 통과", "❌ 재검토 필요")</f>
+        <f>IF(Conv_MaxMin&lt;=1.3, "✅ 통과", "❌ 재검토 필요")</f>
         <v/>
       </c>
     </row>
@@ -3278,7 +3309,7 @@
         </is>
       </c>
       <c r="B17" s="8">
-        <f>SAM</f>
+        <f>SAM*1.15</f>
         <v/>
       </c>
       <c r="C17" s="8">
@@ -3286,7 +3317,7 @@
         <v/>
       </c>
       <c r="D17" s="8">
-        <f>SAM</f>
+        <f>SAM*0.85</f>
         <v/>
       </c>
       <c r="E17" s="8">
@@ -3301,7 +3332,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>SAM_Method2</f>
+        <f>SAM_Method2*1.15</f>
         <v/>
       </c>
       <c r="C18" s="8">
@@ -3309,7 +3340,7 @@
         <v/>
       </c>
       <c r="D18" s="8">
-        <f>SAM_Method2</f>
+        <f>SAM_Method2*0.85</f>
         <v/>
       </c>
       <c r="E18" s="8">
@@ -3324,7 +3355,7 @@
         </is>
       </c>
       <c r="B19" s="8">
-        <f>SAM_Method3</f>
+        <f>SAM_Method3*1.15</f>
         <v/>
       </c>
       <c r="C19" s="8">
@@ -3332,7 +3363,7 @@
         <v/>
       </c>
       <c r="D19" s="8">
-        <f>SAM_Method3</f>
+        <f>SAM_Method3*0.85</f>
         <v/>
       </c>
       <c r="E19" s="8">
@@ -3347,7 +3378,7 @@
         </is>
       </c>
       <c r="B20" s="8">
-        <f>SAM_Method4</f>
+        <f>SAM_Method4*1.15</f>
         <v/>
       </c>
       <c r="C20" s="8">
@@ -3355,7 +3386,7 @@
         <v/>
       </c>
       <c r="D20" s="8">
-        <f>SAM_Method4</f>
+        <f>SAM_Method4*0.85</f>
         <v/>
       </c>
       <c r="E20" s="8">
@@ -3370,15 +3401,15 @@
         </is>
       </c>
       <c r="B22" s="34">
-        <f>AVERAGE(B18:B21)</f>
+        <f>AVERAGE(Scen_Method1_Best,Scen_Method2_Best,Scen_Method3_Best,Scen_Method4_Best)</f>
         <v/>
       </c>
       <c r="C22" s="34">
-        <f>AVERAGE(C18:C21)</f>
+        <f>AVERAGE(Scen_Method1_Base,Scen_Method2_Base,Scen_Method3_Base,Scen_Method4_Base)</f>
         <v/>
       </c>
       <c r="D22" s="34">
-        <f>AVERAGE(D18:D21)</f>
+        <f>AVERAGE(Scen_Method1_Worst,Scen_Method2_Worst,Scen_Method3_Worst,Scen_Method4_Worst)</f>
         <v/>
       </c>
       <c r="E22" s="13">
